--- a/public/static/files/国债资金监控导入模板.xlsx
+++ b/public/static/files/国债资金监控导入模板.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37FF511-8624-4421-AC72-6C2C98AF1363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC61F33-DF2E-4A8D-A58A-A74D2BB8A7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情况明细表" sheetId="4" r:id="rId1"/>
@@ -21,22 +21,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="156">
   <si>
     <t>财政区划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预算级次</t>
-  </si>
-  <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目主管部门</t>
-  </si>
-  <si>
     <t>项目所属投向领域</t>
   </si>
   <si>
@@ -469,10 +463,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -589,6 +579,30 @@
   </si>
   <si>
     <t>项目总投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目单位代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目单位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算级次名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算级次代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目主管部门编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目主管部门名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -792,7 +806,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -839,6 +853,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -863,12 +883,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -881,7 +895,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1168,238 +1185,250 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AU4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.83203125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.08203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.58203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="7.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.58203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.08203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.75" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.58203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="3" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.75" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.08203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="5.25" style="1" customWidth="1"/>
-    <col min="22" max="22" width="5" style="1" customWidth="1"/>
-    <col min="23" max="23" width="2.75" style="1" customWidth="1"/>
-    <col min="24" max="24" width="3.58203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="7.25" style="1" customWidth="1"/>
-    <col min="26" max="31" width="2.75" style="1" customWidth="1"/>
-    <col min="32" max="32" width="10.9140625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.4140625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="9.25" style="1" customWidth="1"/>
-    <col min="35" max="43" width="2.75" style="1" customWidth="1"/>
-    <col min="44" max="209" width="7.83203125" style="1" customWidth="1"/>
-    <col min="210" max="16384" width="7.83203125" style="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.77734375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="7.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" style="2" customWidth="1"/>
+    <col min="16" max="17" width="9.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="5.44140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="3" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.77734375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.33203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="6.109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="5.21875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="5" style="1" customWidth="1"/>
+    <col min="26" max="26" width="2.77734375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="3.5546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="7.21875" style="1" customWidth="1"/>
+    <col min="29" max="34" width="2.77734375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="10.88671875" style="1" customWidth="1"/>
+    <col min="36" max="36" width="11.44140625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="9.21875" style="1" customWidth="1"/>
+    <col min="38" max="46" width="2.77734375" style="1" customWidth="1"/>
+    <col min="47" max="212" width="7.77734375" style="1" customWidth="1"/>
+    <col min="213" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="1:47" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="19" t="s">
+      <c r="O1" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="U2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="V2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="19" t="s">
+      <c r="W2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="19" t="s">
-        <v>126</v>
-      </c>
+      <c r="AK2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU2" s="21"/>
     </row>
-    <row r="2" spans="1:44" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR2" s="19"/>
-    </row>
-    <row r="3" spans="1:44" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1407,133 +1436,142 @@
         <v>2</v>
       </c>
       <c r="C3" s="5">
+        <v>100</v>
+      </c>
+      <c r="D3" s="5">
         <v>3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
+        <v>101</v>
+      </c>
+      <c r="F3" s="5">
         <v>4</v>
       </c>
-      <c r="E3" s="3">
+      <c r="G3" s="3">
         <v>5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="H3" s="3">
         <v>6</v>
       </c>
-      <c r="G3" s="3">
+      <c r="I3" s="3">
         <v>7</v>
       </c>
-      <c r="H3" s="3">
+      <c r="J3" s="3">
         <v>8</v>
       </c>
-      <c r="I3" s="3">
+      <c r="K3" s="3">
         <v>9</v>
       </c>
-      <c r="J3" s="3">
+      <c r="L3" s="3">
         <v>10</v>
       </c>
-      <c r="K3" s="3">
+      <c r="M3" s="3">
         <v>11</v>
       </c>
-      <c r="L3" s="3">
+      <c r="N3" s="3">
         <v>12</v>
       </c>
-      <c r="M3" s="3">
+      <c r="O3" s="3">
         <v>13</v>
       </c>
-      <c r="N3" s="3">
+      <c r="P3" s="3">
         <v>14</v>
       </c>
-      <c r="O3" s="3">
+      <c r="Q3" s="3">
+        <v>102</v>
+      </c>
+      <c r="R3" s="3">
         <v>15</v>
       </c>
-      <c r="P3" s="3">
+      <c r="S3" s="3">
         <v>16</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="T3" s="3">
         <v>17</v>
       </c>
-      <c r="R3" s="3">
+      <c r="U3" s="3">
         <v>18</v>
       </c>
-      <c r="S3" s="3">
+      <c r="V3" s="3">
         <v>19</v>
       </c>
-      <c r="T3" s="3">
+      <c r="W3" s="3">
         <v>20</v>
       </c>
-      <c r="U3" s="3">
+      <c r="X3" s="3">
         <v>21</v>
       </c>
-      <c r="V3" s="3">
+      <c r="Y3" s="3">
         <v>22</v>
       </c>
-      <c r="W3" s="4">
+      <c r="Z3" s="4">
         <v>23</v>
       </c>
-      <c r="X3" s="4">
+      <c r="AA3" s="4">
         <v>24</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="AB3" s="4">
         <v>25</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="AC3" s="4">
         <v>26</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AD3" s="4">
         <v>27</v>
       </c>
-      <c r="AB3" s="4">
+      <c r="AE3" s="4">
         <v>28</v>
       </c>
-      <c r="AC3" s="4">
+      <c r="AF3" s="4">
         <v>29</v>
       </c>
-      <c r="AD3" s="4">
+      <c r="AG3" s="4">
         <v>30</v>
       </c>
-      <c r="AE3" s="4">
+      <c r="AH3" s="4">
         <v>31</v>
       </c>
-      <c r="AF3" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AI3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AL3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AS3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AO3" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR3" s="4">
+      <c r="AT3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU3" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1541,162 +1579,174 @@
         <v>2</v>
       </c>
       <c r="C4" s="5">
+        <v>100</v>
+      </c>
+      <c r="D4" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
+        <v>101</v>
+      </c>
+      <c r="F4" s="5">
         <v>4</v>
       </c>
-      <c r="E4" s="3">
+      <c r="G4" s="3">
         <v>5</v>
       </c>
-      <c r="F4" s="3">
+      <c r="H4" s="3">
         <v>6</v>
       </c>
-      <c r="G4" s="3">
+      <c r="I4" s="3">
         <v>7</v>
       </c>
-      <c r="H4" s="3">
+      <c r="J4" s="3">
         <v>8</v>
       </c>
-      <c r="I4" s="3">
+      <c r="K4" s="3">
         <v>9</v>
       </c>
-      <c r="J4" s="3">
+      <c r="L4" s="3">
         <v>10</v>
       </c>
-      <c r="K4" s="3">
+      <c r="M4" s="3">
         <v>11</v>
       </c>
-      <c r="L4" s="3">
+      <c r="N4" s="3">
         <v>12</v>
       </c>
-      <c r="M4" s="3">
+      <c r="O4" s="3">
         <v>13</v>
       </c>
-      <c r="N4" s="3">
+      <c r="P4" s="3">
         <v>14</v>
       </c>
-      <c r="O4" s="3">
+      <c r="Q4" s="3">
+        <v>102</v>
+      </c>
+      <c r="R4" s="3">
         <v>15</v>
       </c>
-      <c r="P4" s="3">
+      <c r="S4" s="3">
         <v>16</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="T4" s="3">
         <v>17</v>
       </c>
-      <c r="R4" s="3">
+      <c r="U4" s="3">
         <v>18</v>
       </c>
-      <c r="S4" s="3">
+      <c r="V4" s="3">
         <v>19</v>
       </c>
-      <c r="T4" s="3">
+      <c r="W4" s="3">
         <v>20</v>
       </c>
-      <c r="U4" s="3">
+      <c r="X4" s="3">
         <v>21</v>
       </c>
-      <c r="V4" s="3">
+      <c r="Y4" s="3">
         <v>22</v>
       </c>
-      <c r="W4" s="4">
+      <c r="Z4" s="4">
         <v>23</v>
       </c>
-      <c r="X4" s="4">
+      <c r="AA4" s="4">
         <v>24</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="AB4" s="4">
         <v>25</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="AC4" s="4">
         <v>26</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AD4" s="4">
         <v>27</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AE4" s="4">
         <v>28</v>
       </c>
-      <c r="AC4" s="4">
+      <c r="AF4" s="4">
         <v>29</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AG4" s="4">
         <v>30</v>
       </c>
-      <c r="AE4" s="4">
+      <c r="AH4" s="4">
         <v>31</v>
       </c>
-      <c r="AF4" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AI4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL4" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AM4" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AI4" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AN4" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO4" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AP4" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AL4" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM4" s="4" t="s">
+      <c r="AQ4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR4" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AN4" s="4" t="s">
+      <c r="AS4" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AO4" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP4" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ4" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR4" s="4">
+      <c r="AT4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU4" s="4">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="31">
+    <mergeCell ref="AU1:AU2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AR1:AT1"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="S1:AA1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1713,780 +1763,780 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="7"/>
-    <col min="3" max="4" width="15.08203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="7"/>
-    <col min="10" max="10" width="17.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.25" style="7" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" style="7" customWidth="1"/>
     <col min="12" max="12" width="8.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" style="7" customWidth="1"/>
     <col min="14" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="6">
         <v>11</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="6">
         <v>11</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>93</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="6">
         <v>11</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="6">
         <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="6">
         <v>12</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" s="6">
         <v>12</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" s="6">
         <v>13</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="6">
         <v>14</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9" s="6">
         <v>140001</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="6">
         <v>14</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10" s="6">
         <v>140002</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11" s="6">
         <v>14</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11" s="6">
         <v>140003</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L11" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="B12" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="6">
         <v>14</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12" s="6">
         <v>140002</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L12" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="E13" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D17" s="6">
         <v>2</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F17" s="6">
         <v>21</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="H18" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F19" s="6">
         <v>22</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F20" s="6">
         <v>23</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F21" s="6">
         <v>24</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
